--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_462__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_462__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,118 +5990,118 @@
                   <c:v>41.37297821044922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.95074081420898</c:v>
+                  <c:v>49.95073699951172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.33390045166016</c:v>
+                  <c:v>37.33389282226562</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>46.94412994384766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.237266063690186</c:v>
+                  <c:v>6.237265586853027</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45.4466552734375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3491518199443817</c:v>
+                  <c:v>0.3491514921188354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.352378368377686</c:v>
+                  <c:v>-2.352387428283691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.30977249145508</c:v>
+                  <c:v>41.30976867675781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>54.57509613037109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.28938293457031</c:v>
+                  <c:v>37.28938674926758</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.43169403076172</c:v>
+                  <c:v>39.43170166015625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.39818263053894</c:v>
+                  <c:v>-1.398183107376099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42.89213180541992</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.14184951782227</c:v>
+                  <c:v>48.141845703125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.92485237121582</c:v>
+                  <c:v>31.92485809326172</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.38894462585449</c:v>
+                  <c:v>20.38894844055176</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.33567047119141</c:v>
+                  <c:v>34.33567810058594</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>46.80377960205078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.59893798828125</c:v>
+                  <c:v>4.598937511444092</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-19.80340957641602</c:v>
+                  <c:v>-19.80341720581055</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.33932113647461</c:v>
+                  <c:v>43.33931732177734</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.22346019744873</c:v>
+                  <c:v>2.223460912704468</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.2074192315340042</c:v>
+                  <c:v>-0.2074201554059982</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.730488300323486</c:v>
+                  <c:v>-4.730490207672119</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-4.5934157371521</c:v>
+                  <c:v>-4.593417167663574</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44.96130752563477</c:v>
@@ -6110,94 +6110,94 @@
                   <c:v>36.01380157470703</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.545570969581604</c:v>
+                  <c:v>-0.5455634593963623</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.743976593017578</c:v>
+                  <c:v>-8.743978500366211</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44.45064163208008</c:v>
+                  <c:v>44.45063781738281</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-4.187198638916016</c:v>
+                  <c:v>-4.187201023101807</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-39.3416748046875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44.68772506713867</c:v>
+                  <c:v>44.68771362304688</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.272887110710144</c:v>
+                  <c:v>1.272902369499207</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.03006362915039</c:v>
+                  <c:v>34.03007507324219</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>48.96112823486328</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55.72920989990234</c:v>
+                  <c:v>55.72921371459961</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-11.57815074920654</c:v>
+                  <c:v>-11.57815170288086</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31.88887977600098</c:v>
+                  <c:v>31.88887786865234</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-8.814174652099609</c:v>
+                  <c:v>-8.814178466796875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48.35250473022461</c:v>
+                  <c:v>48.35250854492188</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.8079993724823</c:v>
+                  <c:v>-3.808002948760986</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14.41943836212158</c:v>
+                  <c:v>14.41944122314453</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>49.09324645996094</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31.26982498168945</c:v>
+                  <c:v>31.26983451843262</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44.20384979248047</c:v>
+                  <c:v>44.203857421875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.93343353271484</c:v>
+                  <c:v>22.93344116210938</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.21032333374023</c:v>
+                  <c:v>37.21033477783203</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>42.51166152954102</c:v>
@@ -6206,85 +6206,85 @@
                   <c:v>57.98184967041016</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.93362617492676</c:v>
+                  <c:v>24.93362808227539</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>37.19106292724609</c:v>
+                  <c:v>37.19107055664062</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23.25843048095703</c:v>
+                  <c:v>23.25842475891113</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>32.34029006958008</c:v>
+                  <c:v>32.34028244018555</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.14177227020264</c:v>
+                  <c:v>13.1417760848999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>34.36182022094727</c:v>
+                  <c:v>34.36183166503906</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.21135139465332</c:v>
+                  <c:v>21.21136283874512</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>54.282470703125</c:v>
+                  <c:v>54.28246688842773</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>23.58051300048828</c:v>
+                  <c:v>23.58049964904785</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.89608955383301</c:v>
+                  <c:v>19.8961009979248</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>47.50745391845703</c:v>
+                  <c:v>47.50745010375977</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.76166915893555</c:v>
+                  <c:v>15.76167011260986</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>-0.8178229928016663</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>50.38799285888672</c:v>
+                  <c:v>50.38798904418945</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>42.76715850830078</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>78.03558349609375</c:v>
+                  <c:v>78.03556823730469</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>35.3389778137207</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.82165241241455</c:v>
+                  <c:v>15.82165145874023</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.664915144443512</c:v>
+                  <c:v>0.6649150252342224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>49.95074081420898</v>
+        <v>49.95073699951172</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>37.33390045166016</v>
+        <v>37.33389282226562</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.237266063690186</v>
+        <v>6.237265586853027</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3491518199443817</v>
+        <v>0.3491514921188354</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-2.352378368377686</v>
+        <v>-2.352387428283691</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>41.30977249145508</v>
+        <v>41.30976867675781</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>37.28938293457031</v>
+        <v>37.28938674926758</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>39.43169403076172</v>
+        <v>39.43170166015625</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-1.39818263053894</v>
+        <v>-1.398183107376099</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>48.14184951782227</v>
+        <v>48.141845703125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.92485237121582</v>
+        <v>31.92485809326172</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>20.38894462585449</v>
+        <v>20.38894844055176</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>34.33567047119141</v>
+        <v>34.33567810058594</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>4.59893798828125</v>
+        <v>4.598937511444092</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-19.80340957641602</v>
+        <v>-19.80341720581055</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>43.33932113647461</v>
+        <v>43.33931732177734</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.22346019744873</v>
+        <v>2.223460912704468</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.2074192315340042</v>
+        <v>-0.2074201554059982</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-4.730488300323486</v>
+        <v>-4.730490207672119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-4.5934157371521</v>
+        <v>-4.593417167663574</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>-0.545570969581604</v>
+        <v>-0.5455634593963623</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-8.743976593017578</v>
+        <v>-8.743978500366211</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>44.45064163208008</v>
+        <v>44.45063781738281</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-4.187198638916016</v>
+        <v>-4.187201023101807</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>44.68772506713867</v>
+        <v>44.68771362304688</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.272887110710144</v>
+        <v>1.272902369499207</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>34.03006362915039</v>
+        <v>34.03007507324219</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>55.72920989990234</v>
+        <v>55.72921371459961</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-11.57815074920654</v>
+        <v>-11.57815170288086</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>31.88887977600098</v>
+        <v>31.88887786865234</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-8.814174652099609</v>
+        <v>-8.814178466796875</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>48.35250473022461</v>
+        <v>48.35250854492188</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-3.8079993724823</v>
+        <v>-3.808002948760986</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>14.41943836212158</v>
+        <v>14.41944122314453</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>31.26982498168945</v>
+        <v>31.26983451843262</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>44.20384979248047</v>
+        <v>44.203857421875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>22.93343353271484</v>
+        <v>22.93344116210938</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>37.21032333374023</v>
+        <v>37.21033477783203</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>24.93362617492676</v>
+        <v>24.93362808227539</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>37.19106292724609</v>
+        <v>37.19107055664062</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>23.25843048095703</v>
+        <v>23.25842475891113</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>32.34029006958008</v>
+        <v>32.34028244018555</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>13.14177227020264</v>
+        <v>13.1417760848999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>34.36182022094727</v>
+        <v>34.36183166503906</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>21.21135139465332</v>
+        <v>21.21136283874512</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>54.282470703125</v>
+        <v>54.28246688842773</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>23.58051300048828</v>
+        <v>23.58049964904785</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>19.89608955383301</v>
+        <v>19.8961009979248</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>47.50745391845703</v>
+        <v>47.50745010375977</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>15.76166915893555</v>
+        <v>15.76167011260986</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>50.38799285888672</v>
+        <v>50.38798904418945</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>78.03558349609375</v>
+        <v>78.03556823730469</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>15.82165241241455</v>
+        <v>15.82165145874023</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.664915144443512</v>
+        <v>0.6649150252342224</v>
       </c>
     </row>
     <row r="102" spans="1:6">
